--- a/upload/excel/2504_부산중앙고_발주서_에스에이치유통_업로드용.xlsx
+++ b/upload/excel/2504_부산중앙고_발주서_에스에이치유통_업로드용.xlsx
@@ -553,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AK21"/>
+  <dimension ref="A1:AL21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,6 +561,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
@@ -766,6 +767,11 @@
       <c r="AK5" s="2" t="inlineStr">
         <is>
           <t>총량</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>계약단가</t>
         </is>
       </c>
     </row>
@@ -838,6 +844,9 @@
         <is>
           <t>11</t>
         </is>
+      </c>
+      <c r="AL6" t="n">
+        <v>9000</v>
       </c>
     </row>
     <row r="7">
@@ -909,6 +918,9 @@
         <is>
           <t>5</t>
         </is>
+      </c>
+      <c r="AL7" t="n">
+        <v>9000</v>
       </c>
     </row>
     <row r="8">
@@ -981,6 +993,9 @@
           <t>4</t>
         </is>
       </c>
+      <c r="AL8" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -1059,6 +1074,9 @@
         <is>
           <t>60</t>
         </is>
+      </c>
+      <c r="AL9" t="n">
+        <v>9000</v>
       </c>
     </row>
     <row r="10">
@@ -1131,6 +1149,9 @@
           <t>22</t>
         </is>
       </c>
+      <c r="AL10" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
@@ -1209,6 +1230,9 @@
         <is>
           <t>21</t>
         </is>
+      </c>
+      <c r="AL11" t="n">
+        <v>9000</v>
       </c>
     </row>
     <row r="12">
@@ -1284,6 +1308,9 @@
         <is>
           <t>102</t>
         </is>
+      </c>
+      <c r="AL12" t="n">
+        <v>11000</v>
       </c>
     </row>
     <row r="13">
@@ -1355,6 +1382,9 @@
         <is>
           <t>12</t>
         </is>
+      </c>
+      <c r="AL13" t="n">
+        <v>11000</v>
       </c>
     </row>
     <row r="14">
@@ -1426,6 +1456,9 @@
         <is>
           <t>35</t>
         </is>
+      </c>
+      <c r="AL14" t="n">
+        <v>11000</v>
       </c>
     </row>
     <row r="15">
@@ -1498,6 +1531,9 @@
           <t>4</t>
         </is>
       </c>
+      <c r="AL15" t="n">
+        <v>11000</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
@@ -1569,6 +1605,9 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AL16" t="n">
+        <v>13000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
@@ -1639,6 +1678,9 @@
         <is>
           <t>35</t>
         </is>
+      </c>
+      <c r="AL17" t="n">
+        <v>6000</v>
       </c>
     </row>
     <row r="18">
@@ -1711,6 +1753,9 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AL18" t="n">
+        <v>11000</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
@@ -1782,6 +1827,9 @@
           <t>8</t>
         </is>
       </c>
+      <c r="AL19" t="n">
+        <v>34000</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
@@ -1861,6 +1909,9 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AL20" t="n">
+        <v>34050</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr"/>
